--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H2">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N2">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q2">
-        <v>173.7163654110322</v>
+        <v>242.2386135475569</v>
       </c>
       <c r="R2">
-        <v>173.7163654110322</v>
+        <v>2180.147521928012</v>
       </c>
       <c r="S2">
-        <v>0.001911017339826074</v>
+        <v>0.00259886021881932</v>
       </c>
       <c r="T2">
-        <v>0.001911017339826074</v>
+        <v>0.00259886021881932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H3">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N3">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q3">
-        <v>176.4202362822002</v>
+        <v>239.2726020827307</v>
       </c>
       <c r="R3">
-        <v>176.4202362822002</v>
+        <v>2153.453418744576</v>
       </c>
       <c r="S3">
-        <v>0.001940762056780212</v>
+        <v>0.002567039324984054</v>
       </c>
       <c r="T3">
-        <v>0.001940762056780212</v>
+        <v>0.002567039324984054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H4">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N4">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q4">
-        <v>621.8225389647</v>
+        <v>844.0706877522168</v>
       </c>
       <c r="R4">
-        <v>621.8225389647</v>
+        <v>7596.636189769951</v>
       </c>
       <c r="S4">
-        <v>0.006840539470443873</v>
+        <v>0.009055623709801505</v>
       </c>
       <c r="T4">
-        <v>0.006840539470443873</v>
+        <v>0.009055623709801506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H5">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I5">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J5">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N5">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q5">
-        <v>585.5811742392324</v>
+        <v>800.6256436777097</v>
       </c>
       <c r="R5">
-        <v>585.5811742392324</v>
+        <v>7205.630793099387</v>
       </c>
       <c r="S5">
-        <v>0.006441855810182746</v>
+        <v>0.008589522970961525</v>
       </c>
       <c r="T5">
-        <v>0.006441855810182746</v>
+        <v>0.008589522970961525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H6">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I6">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J6">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N6">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O6">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P6">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q6">
-        <v>41.99826060385773</v>
+        <v>63.30699167195866</v>
       </c>
       <c r="R6">
-        <v>41.99826060385773</v>
+        <v>569.762925047628</v>
       </c>
       <c r="S6">
-        <v>0.0004620140656673524</v>
+        <v>0.0006791899103941957</v>
       </c>
       <c r="T6">
-        <v>0.0004620140656673524</v>
+        <v>0.0006791899103941957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H7">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N7">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q7">
-        <v>9673.809862949945</v>
+        <v>10009.01544911353</v>
       </c>
       <c r="R7">
-        <v>9673.809862949945</v>
+        <v>90081.13904202176</v>
       </c>
       <c r="S7">
-        <v>0.1064195555009223</v>
+        <v>0.1073818566714278</v>
       </c>
       <c r="T7">
-        <v>0.1064195555009223</v>
+        <v>0.1073818566714278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H8">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J8">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N8">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q8">
-        <v>9824.38135711953</v>
+        <v>9886.463333499372</v>
       </c>
       <c r="R8">
-        <v>9824.38135711953</v>
+        <v>88978.17000149435</v>
       </c>
       <c r="S8">
-        <v>0.1080759609614025</v>
+        <v>0.1060670546531309</v>
       </c>
       <c r="T8">
-        <v>0.1080759609614025</v>
+        <v>0.1060670546531309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H9">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J9">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N9">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q9">
-        <v>34627.67020371515</v>
+        <v>34876.01101298916</v>
       </c>
       <c r="R9">
-        <v>34627.67020371515</v>
+        <v>313884.0991169024</v>
       </c>
       <c r="S9">
-        <v>0.380931744919387</v>
+        <v>0.3741677525534871</v>
       </c>
       <c r="T9">
-        <v>0.380931744919387</v>
+        <v>0.3741677525534871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H10">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I10">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J10">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N10">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q10">
-        <v>32609.48342725079</v>
+        <v>33080.91273794149</v>
       </c>
       <c r="R10">
-        <v>32609.48342725079</v>
+        <v>297728.2146414734</v>
       </c>
       <c r="S10">
-        <v>0.358730095030469</v>
+        <v>0.3549090166006548</v>
       </c>
       <c r="T10">
-        <v>0.358730095030469</v>
+        <v>0.3549090166006547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H11">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I11">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J11">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N11">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O11">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P11">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q11">
-        <v>2338.773245082753</v>
+        <v>2615.770658533504</v>
       </c>
       <c r="R11">
-        <v>2338.773245082753</v>
+        <v>23541.93592680153</v>
       </c>
       <c r="S11">
-        <v>0.02572835446274308</v>
+        <v>0.02806333064106204</v>
       </c>
       <c r="T11">
-        <v>0.02572835446274308</v>
+        <v>0.02806333064106204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H12">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I12">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J12">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N12">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O12">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P12">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q12">
-        <v>1.558323622584794</v>
+        <v>1.771641341853444</v>
       </c>
       <c r="R12">
-        <v>1.558323622584794</v>
+        <v>15.944772076681</v>
       </c>
       <c r="S12">
-        <v>1.714279168099036E-05</v>
+        <v>1.900707793002076E-05</v>
       </c>
       <c r="T12">
-        <v>1.714279168099036E-05</v>
+        <v>1.900707793002076E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H13">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I13">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J13">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N13">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O13">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P13">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q13">
-        <v>1.582578711280614</v>
+        <v>1.749949058965333</v>
       </c>
       <c r="R13">
-        <v>1.582578711280614</v>
+        <v>15.749541530688</v>
       </c>
       <c r="S13">
-        <v>1.740961682994543E-05</v>
+        <v>1.877435198171847E-05</v>
       </c>
       <c r="T13">
-        <v>1.740961682994543E-05</v>
+        <v>1.877435198171847E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H14">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I14">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J14">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N14">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O14">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P14">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q14">
-        <v>5.578062545987433</v>
+        <v>6.173212866308443</v>
       </c>
       <c r="R14">
-        <v>5.578062545987433</v>
+        <v>55.558915796776</v>
       </c>
       <c r="S14">
-        <v>6.136309738460251E-05</v>
+        <v>6.622939714523646E-05</v>
       </c>
       <c r="T14">
-        <v>6.136309738460251E-05</v>
+        <v>6.622939714523649E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H15">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I15">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J15">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N15">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O15">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P15">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q15">
-        <v>5.252959182048293</v>
+        <v>5.855472292029888</v>
       </c>
       <c r="R15">
-        <v>5.252959182048293</v>
+        <v>52.699250628269</v>
       </c>
       <c r="S15">
-        <v>5.7786703391708E-05</v>
+        <v>6.282051312668909E-05</v>
       </c>
       <c r="T15">
-        <v>5.7786703391708E-05</v>
+        <v>6.282051312668909E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H16">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I16">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J16">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N16">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O16">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P16">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q16">
-        <v>0.3767456304511623</v>
+        <v>0.4630033256543333</v>
       </c>
       <c r="R16">
-        <v>0.3767456304511623</v>
+        <v>4.167029930889</v>
       </c>
       <c r="S16">
-        <v>4.144499747000547E-06</v>
+        <v>4.967337397626999E-06</v>
       </c>
       <c r="T16">
-        <v>4.144499747000547E-06</v>
+        <v>4.967337397627E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H17">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I17">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J17">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N17">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O17">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P17">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q17">
-        <v>23.30133505254715</v>
+        <v>3.728684077606445</v>
       </c>
       <c r="R17">
-        <v>23.30133505254715</v>
+        <v>33.55815669845801</v>
       </c>
       <c r="S17">
-        <v>0.0002563331049504379</v>
+        <v>4.000323720451765E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002563331049504379</v>
+        <v>4.000323720451765E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H18">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I18">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J18">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N18">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O18">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P18">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q18">
-        <v>23.66401706560237</v>
+        <v>3.683029425109334</v>
       </c>
       <c r="R18">
-        <v>23.66401706560237</v>
+        <v>33.147264825984</v>
       </c>
       <c r="S18">
-        <v>0.0002603228937889944</v>
+        <v>3.951343065203971E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002603228937889944</v>
+        <v>3.951343065203972E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H19">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I19">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J19">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N19">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O19">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P19">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q19">
-        <v>83.4077738695416</v>
+        <v>12.99244941879645</v>
       </c>
       <c r="R19">
-        <v>83.4077738695416</v>
+        <v>116.932044769168</v>
       </c>
       <c r="S19">
-        <v>0.000917551445218434</v>
+        <v>0.0001393896680840412</v>
       </c>
       <c r="T19">
-        <v>0.000917551445218434</v>
+        <v>0.0001393896680840412</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H20">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I20">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J20">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N20">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O20">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P20">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q20">
-        <v>78.5465612818181</v>
+        <v>12.32371687562689</v>
       </c>
       <c r="R20">
-        <v>78.5465612818181</v>
+        <v>110.913451880642</v>
       </c>
       <c r="S20">
-        <v>0.0008640742640343841</v>
+        <v>0.0001322151620132655</v>
       </c>
       <c r="T20">
-        <v>0.0008640742640343841</v>
+        <v>0.0001322151620132655</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.227118</v>
+      </c>
+      <c r="I21">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J21">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.382313</v>
+      </c>
+      <c r="N21">
+        <v>7.146939</v>
+      </c>
+      <c r="O21">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P21">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q21">
+        <v>0.9744597213113334</v>
+      </c>
+      <c r="R21">
+        <v>8.770137491802</v>
+      </c>
+      <c r="S21">
+        <v>1.04545042075243E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.04545042075243E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.094568</v>
+      </c>
+      <c r="H22">
+        <v>18.283704</v>
+      </c>
+      <c r="I22">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J22">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.115710333333334</v>
+      </c>
+      <c r="N22">
+        <v>27.347131</v>
+      </c>
+      <c r="O22">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="P22">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="Q22">
+        <v>55.55631649480267</v>
+      </c>
+      <c r="R22">
+        <v>500.006848453224</v>
+      </c>
+      <c r="S22">
+        <v>0.0005960366876609976</v>
+      </c>
+      <c r="T22">
+        <v>0.0005960366876609977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.094568</v>
+      </c>
+      <c r="H23">
+        <v>18.283704</v>
+      </c>
+      <c r="I23">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J23">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.004096000000001</v>
+      </c>
+      <c r="N23">
+        <v>27.012288</v>
+      </c>
+      <c r="O23">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="P23">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="Q23">
+        <v>54.876075350528</v>
+      </c>
+      <c r="R23">
+        <v>493.884678154752</v>
+      </c>
+      <c r="S23">
+        <v>0.0005887387114086999</v>
+      </c>
+      <c r="T23">
+        <v>0.0005887387114087001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.094568</v>
+      </c>
+      <c r="H24">
+        <v>18.283704</v>
+      </c>
+      <c r="I24">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J24">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>31.76332533333333</v>
+      </c>
+      <c r="N24">
+        <v>95.289976</v>
+      </c>
+      <c r="O24">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="P24">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="Q24">
+        <v>193.5837461501226</v>
+      </c>
+      <c r="R24">
+        <v>1742.253715351104</v>
+      </c>
+      <c r="S24">
+        <v>0.002076865820489029</v>
+      </c>
+      <c r="T24">
+        <v>0.002076865820489029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="H21">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="I21">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="J21">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.13239902307729</v>
-      </c>
-      <c r="N21">
-        <v>2.13239902307729</v>
-      </c>
-      <c r="O21">
-        <v>0.02625648499330667</v>
-      </c>
-      <c r="P21">
-        <v>0.02625648499330667</v>
-      </c>
-      <c r="Q21">
-        <v>5.633410183543544</v>
-      </c>
-      <c r="R21">
-        <v>5.633410183543544</v>
-      </c>
-      <c r="S21">
-        <v>6.19719651492364E-05</v>
-      </c>
-      <c r="T21">
-        <v>6.19719651492364E-05</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.094568</v>
+      </c>
+      <c r="H25">
+        <v>18.283704</v>
+      </c>
+      <c r="I25">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J25">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>30.12843966666667</v>
+      </c>
+      <c r="N25">
+        <v>90.385319</v>
+      </c>
+      <c r="O25">
+        <v>0.3656635429976674</v>
+      </c>
+      <c r="P25">
+        <v>0.3656635429976673</v>
+      </c>
+      <c r="Q25">
+        <v>183.6198242823973</v>
+      </c>
+      <c r="R25">
+        <v>1652.578418541576</v>
+      </c>
+      <c r="S25">
+        <v>0.001969967750911151</v>
+      </c>
+      <c r="T25">
+        <v>0.001969967750911151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.094568</v>
+      </c>
+      <c r="H26">
+        <v>18.283704</v>
+      </c>
+      <c r="I26">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J26">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.382313</v>
+      </c>
+      <c r="N26">
+        <v>7.146939</v>
+      </c>
+      <c r="O26">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P26">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q26">
+        <v>14.519168575784</v>
+      </c>
+      <c r="R26">
+        <v>130.672517182056</v>
+      </c>
+      <c r="S26">
+        <v>0.0001557690950643123</v>
+      </c>
+      <c r="T26">
+        <v>0.0001557690950643123</v>
       </c>
     </row>
   </sheetData>
